--- a/data/trans_dic/P16B99-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B99-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
